--- a/results/experiments/inference_stage_experiment_results.xlsx
+++ b/results/experiments/inference_stage_experiment_results.xlsx
@@ -545,40 +545,40 @@
         <v>0.115040160716</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620722433433414</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H2" t="n">
-        <v>22.67329510231991</v>
+        <v>38.16877396506784</v>
       </c>
       <c r="I2" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M2" t="n">
         <v>0.005</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1377013774524997</v>
+        <v>0.1614507330633292</v>
       </c>
       <c r="P2" t="n">
         <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04688899017996797</v>
+        <v>0.08188513476995331</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2601092006318806</v>
+        <v>0.2580498476598971</v>
       </c>
     </row>
     <row r="3">
@@ -601,40 +601,40 @@
         <v>0.142809405923</v>
       </c>
       <c r="G3" t="n">
-        <v>3.640551237432085</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H3" t="n">
-        <v>22.67329510231991</v>
+        <v>43.57068701112735</v>
       </c>
       <c r="I3" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M3" t="n">
         <v>0.005</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1383511627462972</v>
+        <v>0.1443228722127453</v>
       </c>
       <c r="P3" t="n">
         <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04731079071767103</v>
+        <v>0.0727478062225561</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2609092906949021</v>
+        <v>0.2318701853424721</v>
       </c>
     </row>
     <row r="4">
@@ -657,40 +657,40 @@
         <v>0.162740811706</v>
       </c>
       <c r="G4" t="n">
-        <v>3.660719254019654</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H4" t="n">
-        <v>22.67329510231991</v>
+        <v>49.10431113162588</v>
       </c>
       <c r="I4" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M4" t="n">
         <v>0.005</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1390110601628947</v>
+        <v>0.1301761274169911</v>
       </c>
       <c r="P4" t="n">
         <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04774027335403664</v>
+        <v>0.06528673009345992</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2617207502899825</v>
+        <v>0.2100260349041584</v>
       </c>
     </row>
     <row r="5">
@@ -713,40 +713,40 @@
         <v>0.185647934675</v>
       </c>
       <c r="G5" t="n">
-        <v>3.681264747761419</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H5" t="n">
-        <v>22.67329510231991</v>
+        <v>54.78885738415751</v>
       </c>
       <c r="I5" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M5" t="n">
         <v>0.005</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O5" t="n">
-        <v>0.139682270115775</v>
+        <v>0.1182672206503809</v>
       </c>
       <c r="P5" t="n">
         <v>0.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04817826786027476</v>
+        <v>0.05906481948515448</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2625450097307623</v>
+        <v>0.1914840239938368</v>
       </c>
     </row>
     <row r="6">
@@ -769,40 +769,40 @@
         <v>0.211976274848</v>
       </c>
       <c r="G6" t="n">
-        <v>3.702230922318336</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H6" t="n">
-        <v>22.67329510231991</v>
+        <v>60.64702228692148</v>
       </c>
       <c r="I6" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M6" t="n">
         <v>0.005</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1403661454508987</v>
+        <v>0.1080779427984412</v>
       </c>
       <c r="P6" t="n">
         <v>0.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04862571250778239</v>
+        <v>0.05378331806636782</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2633836778847753</v>
+        <v>0.1755092065729369</v>
       </c>
     </row>
     <row r="7">
@@ -825,40 +825,40 @@
         <v>0.241802036762</v>
       </c>
       <c r="G7" t="n">
-        <v>3.723662094654391</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H7" t="n">
-        <v>22.67329510231991</v>
+        <v>66.70363862377998</v>
       </c>
       <c r="I7" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M7" t="n">
         <v>0.005</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1410640653340609</v>
+        <v>0.09923844791347822</v>
       </c>
       <c r="P7" t="n">
         <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04908357280283407</v>
+        <v>0.04923233597548782</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2642383863350726</v>
+        <v>0.1615688665543344</v>
       </c>
     </row>
     <row r="8">
@@ -881,40 +881,40 @@
         <v>0.273933917284</v>
       </c>
       <c r="G8" t="n">
-        <v>3.745588349103458</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H8" t="n">
-        <v>22.67329510231991</v>
+        <v>72.97847387071725</v>
       </c>
       <c r="I8" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M8" t="n">
         <v>0.005</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1417769360310213</v>
+        <v>0.09148635502546053</v>
       </c>
       <c r="P8" t="n">
         <v>0.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04955251317898986</v>
+        <v>0.04526449572741414</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2651101788081655</v>
+        <v>0.1492813399518753</v>
       </c>
     </row>
     <row r="9">
@@ -937,40 +937,40 @@
         <v>0.309429496527</v>
       </c>
       <c r="G9" t="n">
-        <v>3.768052820304785</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H9" t="n">
-        <v>22.67329510231991</v>
+        <v>79.49946188402158</v>
       </c>
       <c r="I9" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M9" t="n">
         <v>0.005</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1425060791655265</v>
+        <v>0.08461712083094436</v>
       </c>
       <c r="P9" t="n">
         <v>0.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05003347975103377</v>
+        <v>0.04176652264763328</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2660005989808322</v>
+        <v>0.1383450010012608</v>
       </c>
     </row>
     <row r="10">
@@ -993,40 +993,40 @@
         <v>0.344131946564</v>
       </c>
       <c r="G10" t="n">
-        <v>3.791048375297668</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H10" t="n">
-        <v>22.67329510231991</v>
+        <v>86.27041193992874</v>
       </c>
       <c r="I10" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M10" t="n">
         <v>0.005</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1432511778916404</v>
+        <v>0.07849724485955166</v>
       </c>
       <c r="P10" t="n">
         <v>0.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05052634393305066</v>
+        <v>0.03866423029551985</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2669091839418096</v>
+        <v>0.1285637442886196</v>
       </c>
     </row>
     <row r="11">
@@ -1049,40 +1049,40 @@
         <v>0.377034455538</v>
       </c>
       <c r="G11" t="n">
-        <v>3.814555885696557</v>
+        <v>7.348854479714324</v>
       </c>
       <c r="H11" t="n">
-        <v>22.67329510231991</v>
+        <v>93.2883497669542</v>
       </c>
       <c r="I11" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M11" t="n">
         <v>0.005</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1440115276781919</v>
+        <v>0.07302323762593593</v>
       </c>
       <c r="P11" t="n">
         <v>0.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05103071821817721</v>
+        <v>0.03590049150412453</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2678350005654752</v>
+        <v>0.119784598938772</v>
       </c>
     </row>
     <row r="12">
@@ -1105,40 +1105,40 @@
         <v>0.39941239357</v>
       </c>
       <c r="G12" t="n">
-        <v>3.838450365463563</v>
+        <v>8.862514527669866</v>
       </c>
       <c r="H12" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I12" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M12" t="n">
         <v>0.005</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1447830121229841</v>
+        <v>0.08639257706478388</v>
       </c>
       <c r="P12" t="n">
         <v>0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05154393767522893</v>
+        <v>0.04599669495312467</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2687729751193602</v>
+        <v>0.1359597996596611</v>
       </c>
     </row>
     <row r="13">
@@ -1161,40 +1161,40 @@
         <v>0.416460752487</v>
       </c>
       <c r="G13" t="n">
-        <v>3.862669744012882</v>
+        <v>10.47752730833042</v>
       </c>
       <c r="H13" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I13" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M13" t="n">
         <v>0.005</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1455635687784947</v>
+        <v>0.1005528326081502</v>
       </c>
       <c r="P13" t="n">
         <v>0.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05206467875796208</v>
+        <v>0.05704276519372833</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2697205551552524</v>
+        <v>0.1527910776511222</v>
       </c>
     </row>
     <row r="14">
@@ -1217,40 +1217,40 @@
         <v>0.426929473877</v>
       </c>
       <c r="G14" t="n">
-        <v>3.887136163099556</v>
+        <v>12.13996560489669</v>
       </c>
       <c r="H14" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I14" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M14" t="n">
         <v>0.005</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1463506418346618</v>
+        <v>0.114677638124602</v>
       </c>
       <c r="P14" t="n">
         <v>0.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05259127174029381</v>
+        <v>0.06842303925748498</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2706746056965189</v>
+        <v>0.1692250315062681</v>
       </c>
     </row>
     <row r="15">
@@ -1273,40 +1273,40 @@
         <v>0.43362390995</v>
       </c>
       <c r="G15" t="n">
-        <v>3.911805477769588</v>
+        <v>13.83588774550975</v>
       </c>
       <c r="H15" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I15" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M15" t="n">
         <v>0.005</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1471427751790894</v>
+        <v>0.1286370234902497</v>
       </c>
       <c r="P15" t="n">
         <v>0.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05312276624128336</v>
+        <v>0.07997063316131935</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2716333405243581</v>
+        <v>0.1851735304834076</v>
       </c>
     </row>
     <row r="16">
@@ -1329,40 +1329,40 @@
         <v>0.438711702824</v>
       </c>
       <c r="G16" t="n">
-        <v>3.936659444046924</v>
+        <v>15.55944394327439</v>
       </c>
       <c r="H16" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I16" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M16" t="n">
         <v>0.005</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1479393524399842</v>
+        <v>0.142379953197965</v>
       </c>
       <c r="P16" t="n">
         <v>0.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05365876652588011</v>
+        <v>0.09159233471789205</v>
       </c>
       <c r="R16" t="n">
-        <v>0.272595998212635</v>
+        <v>0.2006295570131738</v>
       </c>
     </row>
     <row r="17">
@@ -1385,40 +1385,40 @@
         <v>0.441871792078</v>
       </c>
       <c r="G17" t="n">
-        <v>3.96167570105976</v>
+        <v>17.30349736038308</v>
       </c>
       <c r="H17" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I17" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M17" t="n">
         <v>0.005</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1487396299513521</v>
+        <v>0.1558519868378923</v>
       </c>
       <c r="P17" t="n">
         <v>0.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.05419878606761915</v>
+        <v>0.1032005371798382</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2735616684284149</v>
+        <v>0.21557339643524</v>
       </c>
     </row>
     <row r="18">
@@ -1441,40 +1441,40 @@
         <v>0.444402098656</v>
       </c>
       <c r="G18" t="n">
-        <v>3.986847538388712</v>
+        <v>19.06580031190404</v>
       </c>
       <c r="H18" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I18" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M18" t="n">
         <v>0.005</v>
       </c>
       <c r="N18" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1495433686202791</v>
+        <v>0.1690417866923541</v>
       </c>
       <c r="P18" t="n">
         <v>0.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.05474267453302605</v>
+        <v>0.1147512702314919</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2745300537958081</v>
+        <v>0.2300264108554584</v>
       </c>
     </row>
     <row r="19">
@@ -1497,40 +1497,40 @@
         <v>0.446233928204</v>
       </c>
       <c r="G19" t="n">
-        <v>4.012167300138541</v>
+        <v>20.84380894853365</v>
       </c>
       <c r="H19" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I19" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M19" t="n">
         <v>0.005</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1503503008352934</v>
+        <v>0.1819379097326557</v>
       </c>
       <c r="P19" t="n">
         <v>0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0552902603424445</v>
+        <v>0.1262064397973335</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2755008244426929</v>
+        <v>0.2440037678362534</v>
       </c>
     </row>
     <row r="20">
@@ -1553,40 +1553,40 @@
         <v>0.447290480137</v>
       </c>
       <c r="G20" t="n">
-        <v>4.037626364768379</v>
+        <v>22.63467695087893</v>
       </c>
       <c r="H20" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I20" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M20" t="n">
         <v>0.005</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1511601301266719</v>
+        <v>0.1945288933895387</v>
       </c>
       <c r="P20" t="n">
         <v>0.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05584135017781803</v>
+        <v>0.1375323055927637</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2764736178358689</v>
+        <v>0.2575161680568829</v>
       </c>
     </row>
     <row r="21">
@@ -1609,40 +1609,40 @@
         <v>0.447837382555</v>
       </c>
       <c r="G21" t="n">
-        <v>4.063219294152465</v>
+        <v>24.43655187861187</v>
       </c>
       <c r="H21" t="n">
-        <v>22.67329510231991</v>
+        <v>93.72169847739032</v>
       </c>
       <c r="I21" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M21" t="n">
         <v>0.005</v>
       </c>
       <c r="N21" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1519726630741578</v>
+        <v>0.2068120660638282</v>
       </c>
       <c r="P21" t="n">
         <v>0.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05639581886021561</v>
+        <v>0.1487064603418143</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2774481971190395</v>
+        <v>0.2705802762115161</v>
       </c>
     </row>
     <row r="22">
@@ -1665,40 +1665,40 @@
         <v>0.256420731544</v>
       </c>
       <c r="G22" t="n">
-        <v>4.086618417832812</v>
+        <v>24.55024875267854</v>
       </c>
       <c r="H22" t="n">
-        <v>22.67329510231991</v>
+        <v>99.58827532710828</v>
       </c>
       <c r="I22" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M22" t="n">
         <v>0.005</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1527141862680238</v>
+        <v>0.1977649479455668</v>
       </c>
       <c r="P22" t="n">
         <v>0.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05690316817605875</v>
+        <v>0.142070990649484</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2783363359814008</v>
+        <v>0.2590135881402801</v>
       </c>
     </row>
     <row r="23">
@@ -1721,40 +1721,40 @@
         <v>0.287510842085</v>
       </c>
       <c r="G23" t="n">
-        <v>4.110523245015949</v>
+        <v>24.55024875267854</v>
       </c>
       <c r="H23" t="n">
-        <v>22.67329510231991</v>
+        <v>106.1087181069078</v>
       </c>
       <c r="I23" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M23" t="n">
         <v>0.005</v>
       </c>
       <c r="N23" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1534703973761387</v>
+        <v>0.1878956289242793</v>
       </c>
       <c r="P23" t="n">
         <v>0.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05742187375593904</v>
+        <v>0.134722742639022</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2792408282141118</v>
+        <v>0.2465168697962619</v>
       </c>
     </row>
     <row r="24">
@@ -1777,40 +1777,40 @@
         <v>0.32268846035</v>
       </c>
       <c r="G24" t="n">
-        <v>4.134972388371543</v>
+        <v>24.55024875267854</v>
       </c>
       <c r="H24" t="n">
-        <v>22.67329510231991</v>
+        <v>112.8775146918196</v>
       </c>
       <c r="I24" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M24" t="n">
         <v>0.005</v>
       </c>
       <c r="N24" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O24" t="n">
-        <v>0.154242432481223</v>
+        <v>0.1786411139739857</v>
       </c>
       <c r="P24" t="n">
         <v>0.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05795278708017261</v>
+        <v>0.1278587014619299</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2801629655182333</v>
+        <v>0.2347557846010584</v>
       </c>
     </row>
     <row r="25">
@@ -1833,40 +1833,40 @@
         <v>0.356150120497</v>
       </c>
       <c r="G25" t="n">
-        <v>4.159947508332752</v>
+        <v>24.55024875267854</v>
       </c>
       <c r="H25" t="n">
-        <v>22.67329510231991</v>
+        <v>119.8923755390901</v>
       </c>
       <c r="I25" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M25" t="n">
         <v>0.005</v>
       </c>
       <c r="N25" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1550296238398438</v>
+        <v>0.1699654023391874</v>
       </c>
       <c r="P25" t="n">
         <v>0.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05849552317903183</v>
+        <v>0.1214469338134712</v>
       </c>
       <c r="R25" t="n">
-        <v>0.281101881399058</v>
+        <v>0.2236928972671808</v>
       </c>
     </row>
     <row r="26">
@@ -1889,40 +1889,40 @@
         <v>0.385777622461</v>
       </c>
       <c r="G26" t="n">
-        <v>4.185404833450463</v>
+        <v>26.012236873015</v>
       </c>
       <c r="H26" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I26" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M26" t="n">
         <v>0.005</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1558305071898267</v>
+        <v>0.177592279268548</v>
       </c>
       <c r="P26" t="n">
         <v>0.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0590491417409526</v>
+        <v>0.1284321991211354</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2820557652912469</v>
+        <v>0.2317708144955979</v>
       </c>
     </row>
     <row r="27">
@@ -1945,40 +1945,40 @@
         <v>0.406237512827</v>
       </c>
       <c r="G27" t="n">
-        <v>4.211235811179227</v>
+        <v>27.67451343708944</v>
       </c>
       <c r="H27" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I27" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M27" t="n">
         <v>0.005</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1566415952998719</v>
+        <v>0.1868208805189283</v>
       </c>
       <c r="P27" t="n">
         <v>0.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05961128849890044</v>
+        <v>0.1368167736813625</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2830204120063691</v>
+        <v>0.2416454412023748</v>
       </c>
     </row>
     <row r="28">
@@ -2001,40 +2001,40 @@
         <v>0.420823842287</v>
       </c>
       <c r="G28" t="n">
-        <v>4.23737162397312</v>
+        <v>29.39999176272487</v>
       </c>
       <c r="H28" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I28" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M28" t="n">
         <v>0.005</v>
       </c>
       <c r="N28" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1574606704126361</v>
+        <v>0.1961838084188524</v>
       </c>
       <c r="P28" t="n">
         <v>0.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06018046733731854</v>
+        <v>0.1453887250396199</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2839931467350492</v>
+        <v>0.2516016691544135</v>
       </c>
     </row>
     <row r="29">
@@ -2057,40 +2057,40 @@
         <v>0.429608225822</v>
       </c>
       <c r="G29" t="n">
-        <v>4.263743779061739</v>
+        <v>31.16711141970187</v>
       </c>
       <c r="H29" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I29" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M29" t="n">
         <v>0.005</v>
       </c>
       <c r="N29" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1582855412518543</v>
+        <v>0.2055518214000423</v>
       </c>
       <c r="P29" t="n">
         <v>0.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.06075518443521557</v>
+        <v>0.1540277054408981</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2849713413640512</v>
+        <v>0.2615041794867052</v>
       </c>
     </row>
     <row r="30">
@@ -2113,40 +2113,40 @@
         <v>0.435793161392</v>
       </c>
       <c r="G30" t="n">
-        <v>4.290322280711982</v>
+        <v>32.96633938049096</v>
       </c>
       <c r="H30" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I30" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M30" t="n">
         <v>0.005</v>
       </c>
       <c r="N30" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1591152336782477</v>
+        <v>0.2148683358134576</v>
       </c>
       <c r="P30" t="n">
         <v>0.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.06133478124880702</v>
+        <v>0.1626779693230683</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2859538231985191</v>
+        <v>0.2712967144481562</v>
       </c>
     </row>
     <row r="31">
@@ -2169,40 +2169,40 @@
         <v>0.439998209476</v>
       </c>
       <c r="G31" t="n">
-        <v>4.317084303786341</v>
+        <v>34.79038222866631</v>
       </c>
       <c r="H31" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I31" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M31" t="n">
         <v>0.005</v>
       </c>
       <c r="N31" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1599490040073187</v>
+        <v>0.224092912588861</v>
       </c>
       <c r="P31" t="n">
         <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.06191875366600297</v>
+        <v>0.1712978914626828</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2869396986311858</v>
+        <v>0.2809407829453671</v>
       </c>
     </row>
     <row r="32">
@@ -2225,40 +2225,40 @@
         <v>0.44285172224</v>
       </c>
       <c r="G32" t="n">
-        <v>4.344014492877554</v>
+        <v>36.63427961798323</v>
       </c>
       <c r="H32" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I32" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M32" t="n">
         <v>0.005</v>
       </c>
       <c r="N32" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O32" t="n">
-        <v>0.160786346159713</v>
+        <v>0.2332001713801189</v>
       </c>
       <c r="P32" t="n">
         <v>0.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.06250675915162272</v>
+        <v>0.179859510839417</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2879283595735972</v>
+        <v>0.290413995311865</v>
       </c>
     </row>
     <row r="33">
@@ -2281,40 +2281,40 @@
         <v>0.44514772296</v>
       </c>
       <c r="G33" t="n">
-        <v>4.371107008587591</v>
+        <v>38.49604361780677</v>
       </c>
       <c r="H33" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I33" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M33" t="n">
         <v>0.005</v>
       </c>
       <c r="N33" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1616270528245342</v>
+        <v>0.2421813048914946</v>
       </c>
       <c r="P33" t="n">
         <v>0.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.06309866205147152</v>
+        <v>0.1883504218058716</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2889195534523916</v>
+        <v>0.2997111988249043</v>
       </c>
     </row>
     <row r="34">
@@ -2337,40 +2337,40 @@
         <v>0.446653187275</v>
       </c>
       <c r="G34" t="n">
-        <v>4.398353107760169</v>
+        <v>40.37277821578365</v>
       </c>
       <c r="H34" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I34" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M34" t="n">
         <v>0.005</v>
       </c>
       <c r="N34" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O34" t="n">
-        <v>0.1624708282860461</v>
+        <v>0.2510242138746008</v>
       </c>
       <c r="P34" t="n">
         <v>0.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.06369426268021713</v>
+        <v>0.1967552686166491</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2899129251504943</v>
+        <v>0.3088236573949315</v>
       </c>
     </row>
     <row r="35">
@@ -2393,40 +2393,40 @@
         <v>0.447577297688</v>
       </c>
       <c r="G35" t="n">
-        <v>4.4257465548786</v>
+        <v>42.2623700775264</v>
       </c>
       <c r="H35" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I35" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M35" t="n">
         <v>0.005</v>
       </c>
       <c r="N35" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1633174564201962</v>
+        <v>0.2597216260461054</v>
       </c>
       <c r="P35" t="n">
         <v>0.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.06429341556942145</v>
+        <v>0.2050634171619579</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2909082150994237</v>
+        <v>0.3177474622835488</v>
       </c>
     </row>
     <row r="36">
@@ -2449,40 +2449,40 @@
         <v>0.447944521904</v>
       </c>
       <c r="G36" t="n">
-        <v>4.453281367336992</v>
+        <v>44.16278406394723</v>
       </c>
       <c r="H36" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I36" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M36" t="n">
         <v>0.005</v>
       </c>
       <c r="N36" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1641667304504245</v>
+        <v>0.2682674677960338</v>
       </c>
       <c r="P36" t="n">
         <v>0.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0648959802990912</v>
+        <v>0.2132655580403503</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2919051761881182</v>
+        <v>0.3264797472625648</v>
       </c>
     </row>
     <row r="37">
@@ -2505,40 +2505,40 @@
         <v>0.448119938374</v>
       </c>
       <c r="G37" t="n">
-        <v>4.480955959254192</v>
+        <v>46.07335794074714</v>
       </c>
       <c r="H37" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I37" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M37" t="n">
         <v>0.005</v>
       </c>
       <c r="N37" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1650185802986546</v>
+        <v>0.2766623856502079</v>
       </c>
       <c r="P37" t="n">
         <v>0.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.06550191229391054</v>
+        <v>0.2213590454850277</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2929037228453333</v>
+        <v>0.3350242961344307</v>
       </c>
     </row>
     <row r="38">
@@ -2561,40 +2561,40 @@
         <v>0.448234885931</v>
       </c>
       <c r="G38" t="n">
-        <v>4.508770307718359</v>
+        <v>47.99391698177946</v>
       </c>
       <c r="H38" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I38" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M38" t="n">
         <v>0.005</v>
       </c>
       <c r="N38" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1658729842528184</v>
+        <v>0.2849092541960611</v>
       </c>
       <c r="P38" t="n">
         <v>0.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.066111200993413</v>
+        <v>0.2293436539181224</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2939038265572421</v>
+        <v>0.3433868921008267</v>
       </c>
     </row>
     <row r="39">
@@ -2617,40 +2617,40 @@
         <v>0.448311001062</v>
       </c>
       <c r="G39" t="n">
-        <v>4.536724644171884</v>
+        <v>49.92436509475012</v>
       </c>
       <c r="H39" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I39" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M39" t="n">
         <v>0.005</v>
       </c>
       <c r="N39" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1667299284028196</v>
+        <v>0.2930112312270397</v>
       </c>
       <c r="P39" t="n">
         <v>0.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0667238412536684</v>
+        <v>0.2372196970922034</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2949054680788904</v>
+        <v>0.3515733460760568</v>
       </c>
     </row>
     <row r="40">
@@ -2673,40 +2673,40 @@
         <v>0.448360532522</v>
       </c>
       <c r="G40" t="n">
-        <v>4.564819348470212</v>
+        <v>51.86465171624112</v>
       </c>
       <c r="H40" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I40" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M40" t="n">
         <v>0.005</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1675894033236869</v>
+        <v>0.3009715862114729</v>
       </c>
       <c r="P40" t="n">
         <v>0.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.06733983103823432</v>
+        <v>0.2449878369979289</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2959086334990892</v>
+        <v>0.3595893480123176</v>
       </c>
     </row>
     <row r="41">
@@ -2729,40 +2729,40 @@
         <v>0.448335140944</v>
       </c>
       <c r="G41" t="n">
-        <v>4.59305421530577</v>
+        <v>53.81454260538665</v>
       </c>
       <c r="H41" t="n">
-        <v>22.67329510231991</v>
+        <v>120.4594283376123</v>
       </c>
       <c r="I41" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M41" t="n">
         <v>0.005</v>
       </c>
       <c r="N41" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O41" t="n">
-        <v>0.168451381657342</v>
+        <v>0.308792772174728</v>
       </c>
       <c r="P41" t="n">
         <v>0.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.06795915533177355</v>
+        <v>0.2526481502680168</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2969132880918373</v>
+        <v>0.3674395598514706</v>
       </c>
     </row>
     <row r="42">
@@ -2785,40 +2785,40 @@
         <v>0.015063762665</v>
       </c>
       <c r="G42" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H42" t="n">
-        <v>22.83518132682116</v>
+        <v>125.0679832261929</v>
       </c>
       <c r="I42" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M42" t="n">
         <v>0.005</v>
       </c>
       <c r="N42" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1681528214386051</v>
+        <v>0.3018543221985436</v>
       </c>
       <c r="P42" t="n">
         <v>0.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.06802679573059044</v>
+        <v>0.2468622899360379</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2960828133489294</v>
+        <v>0.3593685993617092</v>
       </c>
     </row>
     <row r="43">
@@ -2841,40 +2841,40 @@
         <v>0.041256602854</v>
       </c>
       <c r="G43" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H43" t="n">
-        <v>23.11473030710805</v>
+        <v>130.4011411754526</v>
       </c>
       <c r="I43" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M43" t="n">
         <v>0.005</v>
       </c>
       <c r="N43" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1664576997341573</v>
+        <v>0.2931277968034448</v>
       </c>
       <c r="P43" t="n">
         <v>0.1</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.06728737972062121</v>
+        <v>0.2394373058126305</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2932857860235389</v>
+        <v>0.3493752211408162</v>
       </c>
     </row>
     <row r="44">
@@ -2897,40 +2897,40 @@
         <v>0.050932310522</v>
       </c>
       <c r="G44" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H44" t="n">
-        <v>23.39727128832693</v>
+        <v>135.8063499769983</v>
       </c>
       <c r="I44" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M44" t="n">
         <v>0.005</v>
       </c>
       <c r="N44" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1647788121003839</v>
+        <v>0.2847835547484353</v>
       </c>
       <c r="P44" t="n">
         <v>0.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.06655622810527305</v>
+        <v>0.2323555625555446</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2905116017478635</v>
+        <v>0.339795635672736</v>
       </c>
     </row>
     <row r="45">
@@ -2953,40 +2953,40 @@
         <v>0.05938770622</v>
       </c>
       <c r="G45" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H45" t="n">
-        <v>23.6826417115017</v>
+        <v>141.2789162990362</v>
       </c>
       <c r="I45" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M45" t="n">
         <v>0.005</v>
       </c>
       <c r="N45" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1631171418117791</v>
+        <v>0.2768057472748761</v>
       </c>
       <c r="P45" t="n">
         <v>0.1</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.06583373036703838</v>
+        <v>0.2256010581259298</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2877620081476389</v>
+        <v>0.330614992446212</v>
       </c>
     </row>
     <row r="46">
@@ -3009,40 +3009,40 @@
         <v>0.06785088777499999</v>
       </c>
       <c r="G46" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H46" t="n">
-        <v>23.97087010564731</v>
+        <v>146.8195863484308</v>
       </c>
       <c r="I46" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M46" t="n">
         <v>0.005</v>
       </c>
       <c r="N46" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O46" t="n">
-        <v>0.1614725055036554</v>
+        <v>0.2691714529657146</v>
       </c>
       <c r="P46" t="n">
         <v>0.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.06511976780054848</v>
+        <v>0.2191521059836037</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2850368259194578</v>
+        <v>0.3218099132193499</v>
       </c>
     </row>
     <row r="47">
@@ -3065,40 +3065,40 @@
         <v>0.077020615339</v>
       </c>
       <c r="G47" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H47" t="n">
-        <v>24.26210456509903</v>
+        <v>152.4325097714591</v>
       </c>
       <c r="I47" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M47" t="n">
         <v>0.005</v>
       </c>
       <c r="N47" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1598440617013533</v>
+        <v>0.2618553128559057</v>
       </c>
       <c r="P47" t="n">
         <v>0.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.06441393776428712</v>
+        <v>0.2129852762780855</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2823347797875825</v>
+        <v>0.3133537996378877</v>
       </c>
     </row>
     <row r="48">
@@ -3121,40 +3121,40 @@
         <v>0.087056003511</v>
       </c>
       <c r="G48" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H48" t="n">
-        <v>24.55652446726847</v>
+        <v>158.1227264453203</v>
       </c>
       <c r="I48" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M48" t="n">
         <v>0.005</v>
       </c>
       <c r="N48" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1582308559094278</v>
+        <v>0.2548335004657086</v>
       </c>
       <c r="P48" t="n">
         <v>0.1</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.06371579156011818</v>
+        <v>0.2070787239245178</v>
       </c>
       <c r="R48" t="n">
-        <v>0.279654397509718</v>
+        <v>0.3052214430171562</v>
       </c>
     </row>
     <row r="49">
@@ -3177,40 +3177,40 @@
         <v>0.09823875129200001</v>
       </c>
       <c r="G49" t="n">
-        <v>4.615992296575097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H49" t="n">
-        <v>24.85436417054054</v>
+        <v>163.8968411049662</v>
       </c>
       <c r="I49" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M49" t="n">
         <v>0.005</v>
       </c>
       <c r="N49" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O49" t="n">
-        <v>0.156631708942029</v>
+        <v>0.2480829173019833</v>
       </c>
       <c r="P49" t="n">
         <v>0.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.06302478651000511</v>
+        <v>0.2014114738802484</v>
       </c>
       <c r="R49" t="n">
-        <v>0.276993822934529</v>
+        <v>0.2973881408791978</v>
       </c>
     </row>
     <row r="50">
@@ -3233,40 +3233,40 @@
         <v>0.111020214856</v>
       </c>
       <c r="G50" t="n">
-        <v>4.617338886642097</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H50" t="n">
-        <v>24.9777563567249</v>
+        <v>169.7639716473868</v>
       </c>
       <c r="I50" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M50" t="n">
         <v>0.005</v>
       </c>
       <c r="N50" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O50" t="n">
-        <v>0.156017030817867</v>
+        <v>0.2415803227353474</v>
       </c>
       <c r="P50" t="n">
         <v>0.1</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.06277018693394978</v>
+        <v>0.195962663647061</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2759516423219216</v>
+        <v>0.2898287212891752</v>
       </c>
     </row>
     <row r="51">
@@ -3289,40 +3289,40 @@
         <v>0.125689700246</v>
       </c>
       <c r="G51" t="n">
-        <v>4.641943367800014</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H51" t="n">
-        <v>24.9777563567249</v>
+        <v>175.7350779252621</v>
       </c>
       <c r="I51" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M51" t="n">
         <v>0.005</v>
       </c>
       <c r="N51" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O51" t="n">
-        <v>0.1567181102770099</v>
+        <v>0.235303395972692</v>
       </c>
       <c r="P51" t="n">
         <v>0.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.06326913083704586</v>
+        <v>0.1907124114229551</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2767798729234567</v>
+        <v>0.2825188047311823</v>
       </c>
     </row>
     <row r="52">
@@ -3345,40 +3345,40 @@
         <v>0.142591103911</v>
       </c>
       <c r="G52" t="n">
-        <v>4.666874982780786</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H52" t="n">
-        <v>24.9777563567249</v>
+        <v>181.8234068236623</v>
       </c>
       <c r="I52" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M52" t="n">
         <v>0.005</v>
       </c>
       <c r="N52" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O52" t="n">
-        <v>0.15742732400121</v>
+        <v>0.2292304268665499</v>
       </c>
       <c r="P52" t="n">
         <v>0.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06377492715700872</v>
+        <v>0.1856415334410342</v>
       </c>
       <c r="R52" t="n">
-        <v>0.277616711778372</v>
+        <v>0.2754344748672353</v>
       </c>
     </row>
     <row r="53">
@@ -3401,40 +3401,40 @@
         <v>0.162069290876</v>
       </c>
       <c r="G53" t="n">
-        <v>4.692166486301584</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H53" t="n">
-        <v>24.9777563567249</v>
+        <v>188.0447142295577</v>
       </c>
       <c r="I53" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J53" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M53" t="n">
         <v>0.005</v>
       </c>
       <c r="N53" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O53" t="n">
-        <v>0.158145557409308</v>
+        <v>0.2233403148199596</v>
       </c>
       <c r="P53" t="n">
         <v>0.1</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.06428824053387659</v>
+        <v>0.1807315232977069</v>
       </c>
       <c r="R53" t="n">
-        <v>0.278463173246733</v>
+        <v>0.2685523026061538</v>
       </c>
     </row>
     <row r="54">
@@ -3457,40 +3457,40 @@
         <v>0.1845946908</v>
       </c>
       <c r="G54" t="n">
-        <v>4.717856481889431</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H54" t="n">
-        <v>24.9777563567249</v>
+        <v>194.4182267069441</v>
       </c>
       <c r="I54" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M54" t="n">
         <v>0.005</v>
       </c>
       <c r="N54" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1588738547855333</v>
+        <v>0.2176119430061264</v>
       </c>
       <c r="P54" t="n">
         <v>0.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0648098550092947</v>
+        <v>0.1759640140776472</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2793204534521037</v>
+        <v>0.2618486357276962</v>
       </c>
     </row>
     <row r="55">
@@ -3513,40 +3513,40 @@
         <v>0.210692703724</v>
       </c>
       <c r="G55" t="n">
-        <v>4.7439901102588</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H55" t="n">
-        <v>24.9777563567249</v>
+        <v>200.9673690229891</v>
       </c>
       <c r="I55" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L55" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M55" t="n">
         <v>0.005</v>
       </c>
       <c r="N55" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1596134371016402</v>
+        <v>0.2120239659209332</v>
       </c>
       <c r="P55" t="n">
         <v>0.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.06534068815685884</v>
+        <v>0.1713205905014757</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2801899499887506</v>
+        <v>0.255299364208471</v>
       </c>
     </row>
     <row r="56">
@@ -3569,40 +3569,40 @@
         <v>0.240374475718</v>
       </c>
       <c r="G56" t="n">
-        <v>4.770612841157528</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H56" t="n">
-        <v>24.9777563567249</v>
+        <v>207.7173756157663</v>
       </c>
       <c r="I56" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M56" t="n">
         <v>0.005</v>
       </c>
       <c r="N56" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O56" t="n">
-        <v>0.1603655248939533</v>
+        <v>0.2065571813806817</v>
       </c>
       <c r="P56" t="n">
         <v>0.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.06588166505617639</v>
+        <v>0.1667847468687876</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2810730526638567</v>
+        <v>0.2488827172200904</v>
       </c>
     </row>
     <row r="57">
@@ -3625,40 +3625,40 @@
         <v>0.272385954857</v>
       </c>
       <c r="G57" t="n">
-        <v>4.797755160318076</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H57" t="n">
-        <v>24.9777563567249</v>
+        <v>214.6880862513891</v>
       </c>
       <c r="I57" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M57" t="n">
         <v>0.005</v>
       </c>
       <c r="N57" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O57" t="n">
-        <v>0.1611309064353748</v>
+        <v>0.2011998619723062</v>
       </c>
       <c r="P57" t="n">
         <v>0.1</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.06643340684444217</v>
+        <v>0.1623462791790174</v>
       </c>
       <c r="R57" t="n">
-        <v>0.281970637242928</v>
+        <v>0.2425855631901068</v>
       </c>
     </row>
     <row r="58">
@@ -3681,40 +3681,40 @@
         <v>0.307739049196</v>
       </c>
       <c r="G58" t="n">
-        <v>4.825460055623707</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H58" t="n">
-        <v>24.9777563567249</v>
+        <v>221.9072203156062</v>
       </c>
       <c r="I58" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K58" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L58" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M58" t="n">
         <v>0.005</v>
       </c>
       <c r="N58" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O58" t="n">
-        <v>0.1619107142282916</v>
+        <v>0.1959368847266885</v>
       </c>
       <c r="P58" t="n">
         <v>0.1</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.06699678907390511</v>
+        <v>0.1579922476436074</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2828839773870426</v>
+        <v>0.236390675189507</v>
       </c>
     </row>
     <row r="59">
@@ -3737,40 +3737,40 @@
         <v>0.342596739531</v>
       </c>
       <c r="G59" t="n">
-        <v>4.853724128428342</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H59" t="n">
-        <v>24.9777563567249</v>
+        <v>229.3804368948216</v>
       </c>
       <c r="I59" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K59" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L59" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M59" t="n">
         <v>0.005</v>
       </c>
       <c r="N59" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1627047685696987</v>
+        <v>0.1907710704048473</v>
       </c>
       <c r="P59" t="n">
         <v>0.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.06757174391449959</v>
+        <v>0.1537246089959931</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2838128056018506</v>
+        <v>0.2303018779632102</v>
       </c>
     </row>
     <row r="60">
@@ -3793,40 +3793,40 @@
         <v>0.375580370426</v>
       </c>
       <c r="G60" t="n">
-        <v>4.882527473760004</v>
+        <v>54.07512000126936</v>
       </c>
       <c r="H60" t="n">
-        <v>24.9777563567249</v>
+        <v>237.1043569439622</v>
       </c>
       <c r="I60" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L60" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M60" t="n">
         <v>0.005</v>
       </c>
       <c r="N60" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O60" t="n">
-        <v>0.1635124267899739</v>
+        <v>0.1857106159011352</v>
       </c>
       <c r="P60" t="n">
         <v>0.1</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.06815786658330768</v>
+        <v>0.1495497501099698</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2847563145625465</v>
+        <v>0.2243293501734905</v>
       </c>
     </row>
     <row r="61">
@@ -3849,40 +3849,40 @@
         <v>0.398471593857</v>
       </c>
       <c r="G61" t="n">
-        <v>4.911750488472974</v>
+        <v>55.58521468429977</v>
       </c>
       <c r="H61" t="n">
-        <v>24.9777563567249</v>
+        <v>238.2568337754094</v>
       </c>
       <c r="I61" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K61" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M61" t="n">
         <v>0.005</v>
       </c>
       <c r="N61" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1643302619180587</v>
+        <v>0.1891669860582307</v>
       </c>
       <c r="P61" t="n">
         <v>0.1</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0687527210990005</v>
+        <v>0.152884149390375</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2857104543248097</v>
+        <v>0.2278586475454495</v>
       </c>
     </row>
     <row r="62">
@@ -3905,40 +3905,40 @@
         <v>0.008491669782</v>
       </c>
       <c r="G62" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H62" t="n">
-        <v>25.13858213840354</v>
+        <v>242.8352001228137</v>
       </c>
       <c r="I62" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L62" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M62" t="n">
         <v>0.005</v>
       </c>
       <c r="N62" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O62" t="n">
-        <v>0.1641332292538918</v>
+        <v>0.1870013809537755</v>
       </c>
       <c r="P62" t="n">
         <v>0.1</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.06885448141105494</v>
+        <v>0.151176199657751</v>
       </c>
       <c r="R62" t="n">
-        <v>0.285068928086482</v>
+        <v>0.225212716311547</v>
       </c>
     </row>
     <row r="63">
@@ -3961,40 +3961,40 @@
         <v>0.03673747927</v>
       </c>
       <c r="G63" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H63" t="n">
-        <v>25.42890412006181</v>
+        <v>248.7360139898768</v>
       </c>
       <c r="I63" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J63" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M63" t="n">
         <v>0.005</v>
       </c>
       <c r="N63" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1625639492449106</v>
+        <v>0.183378627317734</v>
       </c>
       <c r="P63" t="n">
         <v>0.1</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0681478454675371</v>
+        <v>0.1481798749038578</v>
       </c>
       <c r="R63" t="n">
-        <v>0.2825051978345839</v>
+        <v>0.2209442871190017</v>
       </c>
     </row>
     <row r="64">
@@ -4017,40 +4017,40 @@
         <v>0.045711897314</v>
       </c>
       <c r="G64" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H64" t="n">
-        <v>25.72214602321523</v>
+        <v>254.7081316196239</v>
       </c>
       <c r="I64" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K64" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L64" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M64" t="n">
         <v>0.005</v>
       </c>
       <c r="N64" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O64" t="n">
-        <v>0.161009056833496</v>
+        <v>0.1798522697431625</v>
       </c>
       <c r="P64" t="n">
         <v>0.1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.06744869444727956</v>
+        <v>0.1452660132656468</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2799617543455471</v>
+        <v>0.2167856728870062</v>
       </c>
     </row>
     <row r="65">
@@ -4073,40 +4073,40 @@
         <v>0.053511392325</v>
       </c>
       <c r="G65" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H65" t="n">
-        <v>26.01815369673758</v>
+        <v>260.7471055580716</v>
       </c>
       <c r="I65" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M65" t="n">
         <v>0.005</v>
       </c>
       <c r="N65" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1594693772844483</v>
+        <v>0.1764217140845639</v>
       </c>
       <c r="P65" t="n">
         <v>0.1</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.06675736810173026</v>
+        <v>0.1424338926844292</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2774400431686717</v>
+        <v>0.2127364869496896</v>
       </c>
     </row>
     <row r="66">
@@ -4129,40 +4129,40 @@
         <v>0.06158490479</v>
       </c>
       <c r="G66" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H66" t="n">
-        <v>26.31699859077247</v>
+        <v>266.8549104418132</v>
       </c>
       <c r="I66" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M66" t="n">
         <v>0.005</v>
       </c>
       <c r="N66" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1579445260187121</v>
+        <v>0.1730826550689471</v>
       </c>
       <c r="P66" t="n">
         <v>0.1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.06607366244682654</v>
+        <v>0.1396797409409203</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2749395302688961</v>
+        <v>0.208791944238774</v>
       </c>
     </row>
     <row r="67">
@@ -4185,40 +4185,40 @@
         <v>0.070007681847</v>
       </c>
       <c r="G67" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H67" t="n">
-        <v>26.61876538669258</v>
+        <v>273.0338972752795</v>
       </c>
       <c r="I67" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L67" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M67" t="n">
         <v>0.005</v>
       </c>
       <c r="N67" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1564340732432543</v>
+        <v>0.1698308775350767</v>
       </c>
       <c r="P67" t="n">
         <v>0.1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.06539735467544081</v>
+        <v>0.136999879637306</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2724596031011229</v>
+        <v>0.2049473398707466</v>
       </c>
     </row>
     <row r="68">
@@ -4241,40 +4241,40 @@
         <v>0.079419448972</v>
       </c>
       <c r="G68" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H68" t="n">
-        <v>26.92365113541336</v>
+        <v>279.2896156852024</v>
       </c>
       <c r="I68" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K68" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M68" t="n">
         <v>0.005</v>
       </c>
       <c r="N68" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O68" t="n">
-        <v>0.1549370671214903</v>
+        <v>0.1666608660646867</v>
       </c>
       <c r="P68" t="n">
         <v>0.1</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.06472799019996893</v>
+        <v>0.1343895784189438</v>
       </c>
       <c r="R68" t="n">
-        <v>0.2699987859607766</v>
+        <v>0.2011964051361697</v>
       </c>
     </row>
     <row r="69">
@@ -4297,40 +4297,40 @@
         <v>0.089648731053</v>
       </c>
       <c r="G69" t="n">
-        <v>4.93628507514107</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H69" t="n">
-        <v>27.23182834562653</v>
+        <v>285.626916333688</v>
       </c>
       <c r="I69" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K69" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M69" t="n">
         <v>0.005</v>
       </c>
       <c r="N69" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1534527378268389</v>
+        <v>0.1635679403829317</v>
       </c>
       <c r="P69" t="n">
         <v>0.1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.06406519836195493</v>
+        <v>0.1318448145053448</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2675558943955529</v>
+        <v>0.1975338325310421</v>
       </c>
     </row>
     <row r="70">
@@ -4353,40 +4353,40 @@
         <v>0.101196058095</v>
       </c>
       <c r="G70" t="n">
-        <v>4.93751250572051</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H70" t="n">
-        <v>27.36711537640522</v>
+        <v>292.053320550885</v>
       </c>
       <c r="I70" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M70" t="n">
         <v>0.005</v>
       </c>
       <c r="N70" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O70" t="n">
-        <v>0.1528422653168048</v>
+        <v>0.1605465929292211</v>
       </c>
       <c r="P70" t="n">
         <v>0.1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.06380170579843378</v>
+        <v>0.1293609026813383</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2665353342601234</v>
+        <v>0.1939533101249396</v>
       </c>
     </row>
     <row r="71">
@@ -4409,40 +4409,40 @@
         <v>0.114408768713</v>
       </c>
       <c r="G71" t="n">
-        <v>4.963581621722886</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H71" t="n">
-        <v>27.36711537640522</v>
+        <v>298.5783775573611</v>
       </c>
       <c r="I71" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M71" t="n">
         <v>0.005</v>
       </c>
       <c r="N71" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O71" t="n">
-        <v>0.1535253515261446</v>
+        <v>0.1575909629216405</v>
       </c>
       <c r="P71" t="n">
         <v>0.1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.06429441059950124</v>
+        <v>0.1269328862409512</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2673417574450664</v>
+        <v>0.1904480816219644</v>
       </c>
     </row>
     <row r="72">
@@ -4465,40 +4465,40 @@
         <v>0.129588127136</v>
       </c>
       <c r="G72" t="n">
-        <v>4.989964395981958</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H72" t="n">
-        <v>27.36711537640522</v>
+        <v>305.2135766774385</v>
       </c>
       <c r="I72" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J72" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M72" t="n">
         <v>0.005</v>
       </c>
       <c r="N72" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1542155358605718</v>
+        <v>0.1546949875402239</v>
       </c>
       <c r="P72" t="n">
         <v>0.1</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.0647932174875908</v>
+        <v>0.1245556611342492</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2681556328904022</v>
+        <v>0.1870111256534279</v>
       </c>
     </row>
     <row r="73">
@@ -4521,40 +4521,40 @@
         <v>0.147092059255</v>
       </c>
       <c r="G73" t="n">
-        <v>5.016690472815626</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H73" t="n">
-        <v>27.36711537640522</v>
+        <v>311.9728149100959</v>
       </c>
       <c r="I73" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J73" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L73" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M73" t="n">
         <v>0.005</v>
       </c>
       <c r="N73" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O73" t="n">
-        <v>0.1549135545146658</v>
+        <v>0.1518523025832813</v>
       </c>
       <c r="P73" t="n">
         <v>0.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.06529868536665996</v>
+        <v>0.1222238941616896</v>
       </c>
       <c r="R73" t="n">
-        <v>0.268977804089837</v>
+        <v>0.1836350381668128</v>
       </c>
     </row>
     <row r="74">
@@ -4577,40 +4577,40 @@
         <v>0.167255997658</v>
       </c>
       <c r="G74" t="n">
-        <v>5.0437936915966</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H74" t="n">
-        <v>27.36711537640522</v>
+        <v>318.8725117460784</v>
       </c>
       <c r="I74" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J74" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M74" t="n">
         <v>0.005</v>
       </c>
       <c r="N74" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O74" t="n">
-        <v>0.1556202475226517</v>
+        <v>0.1490563157170879</v>
       </c>
       <c r="P74" t="n">
         <v>0.1</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.06581145285981901</v>
+        <v>0.1199320829921634</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2698092326143866</v>
+        <v>0.1803121194502613</v>
       </c>
     </row>
     <row r="75">
@@ -4633,40 +4633,40 @@
         <v>0.190605670214</v>
       </c>
       <c r="G75" t="n">
-        <v>5.071314417227635</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H75" t="n">
-        <v>27.36711537640522</v>
+        <v>325.9329430781157</v>
       </c>
       <c r="I75" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J75" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M75" t="n">
         <v>0.005</v>
       </c>
       <c r="N75" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1563366183101456</v>
+        <v>0.146299811029903</v>
       </c>
       <c r="P75" t="n">
         <v>0.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.06633228246950248</v>
+        <v>0.1176742322017447</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2706510672883725</v>
+        <v>0.177033903855491</v>
       </c>
     </row>
     <row r="76">
@@ -4689,40 +4689,40 @@
         <v>0.217649683356</v>
       </c>
       <c r="G76" t="n">
-        <v>5.099299353558608</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H76" t="n">
-        <v>27.36711537640522</v>
+        <v>333.1786196781648</v>
       </c>
       <c r="I76" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J76" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K76" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L76" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M76" t="n">
         <v>0.005</v>
       </c>
       <c r="N76" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1570638272187281</v>
+        <v>0.1435750092252668</v>
       </c>
       <c r="P76" t="n">
         <v>0.1</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.06686205714284164</v>
+        <v>0.1154439035500046</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2715046353909515</v>
+        <v>0.1737912299757873</v>
       </c>
     </row>
     <row r="77">
@@ -4745,40 +4745,40 @@
         <v>0.248034253716</v>
       </c>
       <c r="G77" t="n">
-        <v>5.12779111599268</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H77" t="n">
-        <v>27.36711537640522</v>
+        <v>340.6338780591711</v>
       </c>
       <c r="I77" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J77" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M77" t="n">
         <v>0.005</v>
       </c>
       <c r="N77" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O77" t="n">
-        <v>0.157802919580406</v>
+        <v>0.1408753440984683</v>
       </c>
       <c r="P77" t="n">
         <v>0.1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.06740158285646011</v>
+        <v>0.1132356694740373</v>
       </c>
       <c r="R77" t="n">
-        <v>0.2723711228495974</v>
+        <v>0.1705763555409166</v>
       </c>
     </row>
     <row r="78">
@@ -4801,40 +4801,40 @@
         <v>0.280676424503</v>
       </c>
       <c r="G78" t="n">
-        <v>5.156819419030247</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H78" t="n">
-        <v>27.36711537640522</v>
+        <v>348.3185740778223</v>
       </c>
       <c r="I78" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J78" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M78" t="n">
         <v>0.005</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O78" t="n">
-        <v>0.1585545983739328</v>
+        <v>0.138196834952224</v>
       </c>
       <c r="P78" t="n">
         <v>0.1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.06795142144604847</v>
+        <v>0.1110462305807701</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2732513088632229</v>
+        <v>0.1673845987936853</v>
       </c>
     </row>
     <row r="79">
@@ -4857,40 +4857,40 @@
         <v>0.316628068686</v>
       </c>
       <c r="G79" t="n">
-        <v>5.186426949833844</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H79" t="n">
-        <v>27.36711537640522</v>
+        <v>356.2607512862899</v>
       </c>
       <c r="I79" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M79" t="n">
         <v>0.005</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O79" t="n">
-        <v>0.1593198951394435</v>
+        <v>0.1355335487824571</v>
       </c>
       <c r="P79" t="n">
         <v>0.1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0685123804468131</v>
+        <v>0.1088707026296031</v>
       </c>
       <c r="R79" t="n">
-        <v>0.2741463523933735</v>
+        <v>0.1642089363602294</v>
       </c>
     </row>
     <row r="80">
@@ -4913,40 +4913,40 @@
         <v>0.350662201643</v>
       </c>
       <c r="G80" t="n">
-        <v>5.216593145894757</v>
+        <v>55.85559028430612</v>
       </c>
       <c r="H80" t="n">
-        <v>27.36711537640522</v>
+        <v>364.4572434399167</v>
       </c>
       <c r="I80" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M80" t="n">
         <v>0.005</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O80" t="n">
-        <v>0.1600982019073909</v>
+        <v>0.1328905182109055</v>
       </c>
       <c r="P80" t="n">
         <v>0.1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.06908406861470874</v>
+        <v>0.1067131631731996</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2750554922154859</v>
+        <v>0.1610554140195311</v>
       </c>
     </row>
     <row r="81">
@@ -4969,40 +4969,40 @@
         <v>0.382150530815</v>
       </c>
       <c r="G81" t="n">
-        <v>5.247290038181393</v>
+        <v>57.30383275277196</v>
       </c>
       <c r="H81" t="n">
-        <v>27.36711537640522</v>
+        <v>366.2472979491951</v>
       </c>
       <c r="I81" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M81" t="n">
         <v>0.005</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O81" t="n">
-        <v>0.1608887229884795</v>
+        <v>0.1352937782453802</v>
       </c>
       <c r="P81" t="n">
         <v>0.1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.06966595307446985</v>
+        <v>0.1089991828850459</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2759777514201412</v>
+        <v>0.1635478299887397</v>
       </c>
     </row>
     <row r="82">
@@ -5025,40 +5025,40 @@
         <v>0.007429388352</v>
       </c>
       <c r="G82" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H82" t="n">
-        <v>27.52777040655166</v>
+        <v>370.8208033653444</v>
       </c>
       <c r="I82" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M82" t="n">
         <v>0.005</v>
       </c>
       <c r="N82" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O82" t="n">
-        <v>0.1607712967975316</v>
+        <v>0.1344131293227323</v>
       </c>
       <c r="P82" t="n">
         <v>0.1</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.06979528980905855</v>
+        <v>0.1083389775261706</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2754845685716894</v>
+        <v>0.1624291928759976</v>
       </c>
     </row>
     <row r="83">
@@ -5081,40 +5081,40 @@
         <v>0.021130835637</v>
       </c>
       <c r="G83" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H83" t="n">
-        <v>27.82747736897217</v>
+        <v>377.2886401732816</v>
       </c>
       <c r="I83" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L83" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M83" t="n">
         <v>0.005</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1593156215874403</v>
+        <v>0.1324140061707929</v>
       </c>
       <c r="P83" t="n">
         <v>0.1</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.06911962120805785</v>
+        <v>0.106702012389793</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2731306738981996</v>
+        <v>0.1600494451004008</v>
       </c>
     </row>
     <row r="84">
@@ -5137,40 +5137,40 @@
         <v>0.027374124154</v>
       </c>
       <c r="G84" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H84" t="n">
-        <v>28.12969181834865</v>
+        <v>383.8175388768373</v>
       </c>
       <c r="I84" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M84" t="n">
         <v>0.005</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O84" t="n">
-        <v>0.1578742180729967</v>
+        <v>0.1304554280988265</v>
       </c>
       <c r="P84" t="n">
         <v>0.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.06845143479804851</v>
+        <v>0.1050990321479158</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2707972204710435</v>
+        <v>0.1577168716341625</v>
       </c>
     </row>
     <row r="85">
@@ -5193,40 +5193,40 @@
         <v>0.0328072384</v>
       </c>
       <c r="G85" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H85" t="n">
-        <v>28.43430510392831</v>
+        <v>390.4043548167481</v>
       </c>
       <c r="I85" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J85" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M85" t="n">
         <v>0.005</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O85" t="n">
-        <v>0.1564475283374448</v>
+        <v>0.1285373255638594</v>
       </c>
       <c r="P85" t="n">
         <v>0.1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.06779090766696098</v>
+        <v>0.1035299300989026</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2684850061988855</v>
+        <v>0.1554314582225076</v>
       </c>
     </row>
     <row r="86">
@@ -5249,40 +5249,40 @@
         <v>0.038355302066</v>
       </c>
       <c r="G86" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H86" t="n">
-        <v>28.7413537661218</v>
+        <v>397.0500763579021</v>
       </c>
       <c r="I86" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J86" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M86" t="n">
         <v>0.005</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O86" t="n">
-        <v>0.1550352923792402</v>
+        <v>0.1266583970173928</v>
       </c>
       <c r="P86" t="n">
         <v>0.1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.06713789182667212</v>
+        <v>0.1019935937117529</v>
       </c>
       <c r="R86" t="n">
-        <v>0.266193691433822</v>
+        <v>0.1531917199601515</v>
       </c>
     </row>
     <row r="87">
@@ -5305,40 +5305,40 @@
         <v>0.044421046972</v>
       </c>
       <c r="G87" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H87" t="n">
-        <v>29.05094124261676</v>
+        <v>403.7575960284033</v>
       </c>
       <c r="I87" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M87" t="n">
         <v>0.005</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1536369599209129</v>
+        <v>0.1248168866606647</v>
       </c>
       <c r="P87" t="n">
         <v>0.1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.06649210630662172</v>
+        <v>0.1004885423960286</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2639224619546937</v>
+        <v>0.150995625852538</v>
       </c>
     </row>
     <row r="88">
@@ -5361,40 +5361,40 @@
         <v>0.051175896078</v>
       </c>
       <c r="G88" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H88" t="n">
-        <v>29.36320152317889</v>
+        <v>410.5306758481238</v>
       </c>
       <c r="I88" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J88" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L88" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M88" t="n">
         <v>0.005</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O88" t="n">
-        <v>0.1522518766562853</v>
+        <v>0.1230109267413296</v>
       </c>
       <c r="P88" t="n">
         <v>0.1</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.06585322380347766</v>
+        <v>0.09901320777235796</v>
       </c>
       <c r="R88" t="n">
-        <v>0.2616703294984103</v>
+        <v>0.148841006297901</v>
       </c>
     </row>
     <row r="89">
@@ -5417,40 +5417,40 @@
         <v>0.058745976537</v>
       </c>
       <c r="G89" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H89" t="n">
-        <v>29.67829283251457</v>
+        <v>417.3737674919993</v>
       </c>
       <c r="I89" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L89" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M89" t="n">
         <v>0.005</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O89" t="n">
-        <v>0.1508793222111424</v>
+        <v>0.1212386078561165</v>
       </c>
       <c r="P89" t="n">
         <v>0.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.06522088840675176</v>
+        <v>0.09756599111461237</v>
       </c>
       <c r="R89" t="n">
-        <v>0.2594361927966753</v>
+        <v>0.1467256369399427</v>
       </c>
     </row>
     <row r="90">
@@ -5473,40 +5473,40 @@
         <v>0.06695865839700001</v>
       </c>
       <c r="G90" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H90" t="n">
-        <v>29.99634782395127</v>
+        <v>424.2905944092278</v>
       </c>
       <c r="I90" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J90" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M90" t="n">
         <v>0.005</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O90" t="n">
-        <v>0.149518728956912</v>
+        <v>0.1194983459216556</v>
       </c>
       <c r="P90" t="n">
         <v>0.1</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.06459481636038594</v>
+        <v>0.09614556273499693</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2572191938655111</v>
+        <v>0.1446476770393029</v>
       </c>
     </row>
     <row r="91">
@@ -5529,40 +5529,40 @@
         <v>0.075971834362</v>
       </c>
       <c r="G91" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H91" t="n">
-        <v>30.31752989256063</v>
+        <v>431.2857549362353</v>
       </c>
       <c r="I91" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J91" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M91" t="n">
         <v>0.005</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O91" t="n">
-        <v>0.1481694358811628</v>
+        <v>0.1177884597513862</v>
       </c>
       <c r="P91" t="n">
         <v>0.1</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.06397468254521366</v>
+        <v>0.09475051671359686</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2550183177455831</v>
+        <v>0.1426051657442215</v>
       </c>
     </row>
     <row r="92">
@@ -5585,40 +5585,40 @@
         <v>0.08591873943800001</v>
       </c>
       <c r="G92" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H92" t="n">
-        <v>30.64203008607884</v>
+        <v>438.3646343558588</v>
       </c>
       <c r="I92" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M92" t="n">
         <v>0.005</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O92" t="n">
-        <v>0.1468307112106015</v>
+        <v>0.1161072134670579</v>
       </c>
       <c r="P92" t="n">
         <v>0.1</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.06336013107303043</v>
+        <v>0.09337940552641891</v>
       </c>
       <c r="R92" t="n">
-        <v>0.2528324287760964</v>
+        <v>0.1405960727100427</v>
       </c>
     </row>
     <row r="93">
@@ -5641,40 +5641,40 @@
         <v>0.096939355135</v>
       </c>
       <c r="G93" t="n">
-        <v>5.273503312407924</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H93" t="n">
-        <v>30.97006985580928</v>
+        <v>445.5334832083357</v>
       </c>
       <c r="I93" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M93" t="n">
         <v>0.005</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O93" t="n">
-        <v>0.1455017497290355</v>
+        <v>0.1144528155121927</v>
       </c>
       <c r="P93" t="n">
         <v>0.1</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.06275077420649772</v>
+        <v>0.09203073921636369</v>
       </c>
       <c r="R93" t="n">
-        <v>0.2506602657277784</v>
+        <v>0.1386182969482724</v>
       </c>
     </row>
     <row r="94">
@@ -5697,40 +5697,40 @@
         <v>0.109531641006</v>
       </c>
       <c r="G94" t="n">
-        <v>5.274831847215681</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H94" t="n">
-        <v>31.12404171267162</v>
+        <v>452.8012840259171</v>
       </c>
       <c r="I94" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K94" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M94" t="n">
         <v>0.005</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O94" t="n">
-        <v>0.1449174474736688</v>
+        <v>0.1128230237812095</v>
       </c>
       <c r="P94" t="n">
         <v>0.1</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.06249145332123807</v>
+        <v>0.09070266366585447</v>
       </c>
       <c r="R94" t="n">
-        <v>0.2496905045571908</v>
+        <v>0.1366691945264568</v>
       </c>
     </row>
     <row r="95">
@@ -5753,40 +5753,40 @@
         <v>0.123978130519</v>
       </c>
       <c r="G95" t="n">
-        <v>5.302703123424542</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H95" t="n">
-        <v>31.12404171267162</v>
+        <v>460.1788115669326</v>
       </c>
       <c r="I95" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K95" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M95" t="n">
         <v>0.005</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O95" t="n">
-        <v>0.1455716986868935</v>
+        <v>0.1112154220449608</v>
       </c>
       <c r="P95" t="n">
         <v>0.1</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.06296701909891961</v>
+        <v>0.0893931863267813</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2504663196610889</v>
+        <v>0.13474590847792</v>
       </c>
     </row>
     <row r="96">
@@ -5809,40 +5809,40 @@
         <v>0.140615940094</v>
       </c>
       <c r="G96" t="n">
-        <v>5.330914683761191</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H96" t="n">
-        <v>31.12404171267162</v>
+        <v>467.6790725979264</v>
       </c>
       <c r="I96" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K96" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M96" t="n">
         <v>0.005</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O96" t="n">
-        <v>0.1462329189422054</v>
+        <v>0.1096273680739603</v>
       </c>
       <c r="P96" t="n">
         <v>0.1</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.06344854547582245</v>
+        <v>0.08810013414187122</v>
       </c>
       <c r="R96" t="n">
-        <v>0.2512495473239394</v>
+        <v>0.1328453064832529</v>
       </c>
     </row>
     <row r="97">
@@ -5865,40 +5865,40 @@
         <v>0.15979410708</v>
       </c>
       <c r="G97" t="n">
-        <v>5.359498909338352</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H97" t="n">
-        <v>31.12404171267162</v>
+        <v>475.3175780250525</v>
       </c>
       <c r="I97" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J97" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K97" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M97" t="n">
         <v>0.005</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O97" t="n">
-        <v>0.1469018307424101</v>
+        <v>0.1080559885210621</v>
       </c>
       <c r="P97" t="n">
         <v>0.1</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.0639365836644053</v>
+        <v>0.08682114961491733</v>
       </c>
       <c r="R97" t="n">
-        <v>0.2520410201069754</v>
+        <v>0.1309639744082966</v>
       </c>
     </row>
     <row r="98">
@@ -5921,40 +5921,40 @@
         <v>0.181957989931</v>
       </c>
       <c r="G98" t="n">
-        <v>5.388493723863049</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H98" t="n">
-        <v>31.12404171267162</v>
+        <v>483.1131381079946</v>
       </c>
       <c r="I98" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K98" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M98" t="n">
         <v>0.005</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O98" t="n">
-        <v>0.1475792809083121</v>
+        <v>0.1064980769344954</v>
       </c>
       <c r="P98" t="n">
         <v>0.1</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.06443177984951863</v>
+        <v>0.08555360809204672</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2528417136391268</v>
+        <v>0.1290980937870204</v>
       </c>
     </row>
     <row r="99">
@@ -5977,40 +5977,40 @@
         <v>0.207639724016</v>
       </c>
       <c r="G99" t="n">
-        <v>5.417943668045496</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H99" t="n">
-        <v>31.12404171267162</v>
+        <v>491.0887429894049</v>
       </c>
       <c r="I99" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M99" t="n">
         <v>0.005</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1482662644516436</v>
+        <v>0.1049499993785909</v>
       </c>
       <c r="P99" t="n">
         <v>0.1</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.06493489361094042</v>
+        <v>0.08429454142135659</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2536527739169316</v>
+        <v>0.1272433281516677</v>
       </c>
     </row>
     <row r="100">
@@ -6033,40 +6033,40 @@
         <v>0.237008959055</v>
       </c>
       <c r="G100" t="n">
-        <v>5.447895530748496</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H100" t="n">
-        <v>31.12404171267162</v>
+        <v>499.270044758167</v>
       </c>
       <c r="I100" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K100" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M100" t="n">
         <v>0.005</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O100" t="n">
-        <v>0.1489638214811457</v>
+        <v>0.1034080711213384</v>
       </c>
       <c r="P100" t="n">
         <v>0.1</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.06544672332838126</v>
+        <v>0.08304094470073949</v>
       </c>
       <c r="R100" t="n">
-        <v>0.2544753947393835</v>
+        <v>0.1253952738008411</v>
       </c>
     </row>
     <row r="101">
@@ -6089,40 +6089,40 @@
         <v>0.268733531237</v>
       </c>
       <c r="G101" t="n">
-        <v>5.478380166365141</v>
+        <v>57.58311070419349</v>
       </c>
       <c r="H101" t="n">
-        <v>31.12404171267162</v>
+        <v>507.6768833774636</v>
       </c>
       <c r="I101" t="n">
-        <v>1.887963026845291</v>
+        <v>0.5065192719998277</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6528907749772417</v>
+        <v>0.992862478025096</v>
       </c>
       <c r="K101" t="n">
-        <v>0.01212923311980572</v>
+        <v>3.789717275486248</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1594658843195089</v>
+        <v>4.53965297545633</v>
       </c>
       <c r="M101" t="n">
         <v>0.005</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09826991848425787</v>
+        <v>0.3784829480062274</v>
       </c>
       <c r="O101" t="n">
-        <v>0.1496726141365734</v>
+        <v>0.1018701328717685</v>
       </c>
       <c r="P101" t="n">
         <v>0.1</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.06596779529969793</v>
+        <v>0.08179105705436238</v>
       </c>
       <c r="R101" t="n">
-        <v>0.2553103192357677</v>
+        <v>0.1235513499673466</v>
       </c>
     </row>
   </sheetData>
